--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_1_6_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_1_6_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.05668674414810371</v>
+        <v>0.164110538044052</v>
       </c>
       <c r="C2">
-        <v>0.4257749909993708</v>
+        <v>0.3990739875612785</v>
       </c>
       <c r="D2">
-        <v>0.3072626037013912</v>
+        <v>0.2717830387705941</v>
       </c>
       <c r="E2">
-        <v>0.5543127309573461</v>
+        <v>0.5213281488377489</v>
       </c>
       <c r="F2">
-        <v>0.5588083420437079</v>
+        <v>0.5059450074181695</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.07480954325745617</v>
+        <v>0.05421946485828021</v>
       </c>
       <c r="C3">
-        <v>0.4259339945869238</v>
+        <v>0.3743046632812781</v>
       </c>
       <c r="D3">
-        <v>0.3222376568521033</v>
+        <v>0.2039986448588482</v>
       </c>
       <c r="E3">
-        <v>0.5676598073248653</v>
+        <v>0.4516620914564872</v>
       </c>
       <c r="F3">
-        <v>0.5704706632908825</v>
+        <v>0.4589478484100895</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08909554871160558</v>
+        <v>0.2108166877076684</v>
       </c>
       <c r="C4">
-        <v>0.3724904068155449</v>
+        <v>0.3911061312796325</v>
       </c>
       <c r="D4">
-        <v>0.2483195816688104</v>
+        <v>0.3070625528270741</v>
       </c>
       <c r="E4">
-        <v>0.4983167483326347</v>
+        <v>0.5541322521087129</v>
       </c>
       <c r="F4">
-        <v>0.4972420030318431</v>
+        <v>0.5251188635552846</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1223505534893849</v>
+        <v>0.1396966153068137</v>
       </c>
       <c r="C5">
-        <v>0.4410290253458156</v>
+        <v>0.3936428606436134</v>
       </c>
       <c r="D5">
-        <v>0.3480389121080628</v>
+        <v>0.2364141445760344</v>
       </c>
       <c r="E5">
-        <v>0.5899482283286075</v>
+        <v>0.4862243767809615</v>
       </c>
       <c r="F5">
-        <v>0.5855471020364489</v>
+        <v>0.477822913957676</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1289461223293039</v>
+        <v>0.2055713184881964</v>
       </c>
       <c r="C6">
-        <v>0.424696436606427</v>
+        <v>0.3985724376705788</v>
       </c>
       <c r="D6">
-        <v>0.3462037208873542</v>
+        <v>0.2720016382854029</v>
       </c>
       <c r="E6">
-        <v>0.588390789261146</v>
+        <v>0.521537763048279</v>
       </c>
       <c r="F6">
-        <v>0.5827210213119575</v>
+        <v>0.4924484944702406</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1541220545391687</v>
+        <v>0.1942106637073617</v>
       </c>
       <c r="C7">
-        <v>0.4111837513619763</v>
+        <v>0.387649315436281</v>
       </c>
       <c r="D7">
-        <v>0.3743069871303808</v>
+        <v>0.2468445352345524</v>
       </c>
       <c r="E7">
-        <v>0.611806331391218</v>
+        <v>0.4968345149388803</v>
       </c>
       <c r="F7">
-        <v>0.6012554968915879</v>
+        <v>0.4705617144037521</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1391429727623535</v>
+        <v>0.2291527386783319</v>
       </c>
       <c r="C8">
-        <v>0.469821444621318</v>
+        <v>0.4681846348907073</v>
       </c>
       <c r="D8">
-        <v>0.4072210641289258</v>
+        <v>0.4295473340169714</v>
       </c>
       <c r="E8">
-        <v>0.6381387499039106</v>
+        <v>0.6553986069690501</v>
       </c>
       <c r="F8">
-        <v>0.6327494920993866</v>
+        <v>0.6329305875422011</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
